--- a/manual/manual_examples/Dutch_3way_contrast.xlsx
+++ b/manual/manual_examples/Dutch_3way_contrast.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="126">
   <si>
     <t xml:space="preserve">mu</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t xml:space="preserve">Wug test:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blaas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blas_en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blaas_en</t>
   </si>
   <si>
     <t xml:space="preserve">Id-Length_listed</t>
@@ -1513,10 +1525,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2583,9 +2595,254 @@
         <v>-0.393958454640151</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L32" s="13"/>
+    </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
         <v>41</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <f aca="false">-SUMPRODUCT(F33:H33,F$32:H$32)</f>
+        <v>-0.95</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <f aca="false">EXP(J33)</f>
+        <v>0.386741023454501</v>
+      </c>
+      <c r="L33" s="13" t="n">
+        <f aca="false">K33/SUMIF(B:B,B33,K:K)</f>
+        <v>0.445220764892785</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <f aca="false">-SUMPRODUCT(F34:H34,F$32:H$32)</f>
+        <v>-0.73</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <f aca="false">EXP(J34)</f>
+        <v>0.481908990090202</v>
+      </c>
+      <c r="L34" s="13" t="n">
+        <f aca="false">K34/SUMIF(B:B,B34,K:K)</f>
+        <v>0.554779235107215</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <f aca="false">-SUMPRODUCT(F35:H35,F$32:H$32)</f>
+        <v>-0.95</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <f aca="false">EXP(J35)</f>
+        <v>0.386741023454501</v>
+      </c>
+      <c r="L35" s="13" t="n">
+        <f aca="false">K35/SUMIF(B:B,B35,K:K)</f>
+        <v>0.278884821977137</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <f aca="false">-SUMPRODUCT(F36:H36,F$32:H$32)</f>
+        <v>-0</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <f aca="false">EXP(J36)</f>
+        <v>1</v>
+      </c>
+      <c r="L36" s="13" t="n">
+        <f aca="false">K36/SUMIF(B:B,B36,K:K)</f>
+        <v>0.721115178022863</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <f aca="false">-SUMPRODUCT(F37:H37,F$32:H$32)</f>
+        <v>-0.95</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <f aca="false">EXP(J37)</f>
+        <v>0.386741023454501</v>
+      </c>
+      <c r="L37" s="13" t="n">
+        <f aca="false">K37/SUMIF(B:B,B37,K:K)</f>
+        <v>0.445220764892785</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <f aca="false">-SUMPRODUCT(F38:H38,F$32:H$32)</f>
+        <v>-0.73</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <f aca="false">EXP(J38)</f>
+        <v>0.481908990090202</v>
+      </c>
+      <c r="L38" s="13" t="n">
+        <f aca="false">K38/SUMIF(B:B,B38,K:K)</f>
+        <v>0.554779235107215</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <f aca="false">-SUMPRODUCT(F39:H39,F$32:H$32)</f>
+        <v>-0.95</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <f aca="false">EXP(J39)</f>
+        <v>0.386741023454501</v>
+      </c>
+      <c r="L39" s="13" t="n">
+        <f aca="false">K39/SUMIF(B:B,B39,K:K)</f>
+        <v>0.278884821977137</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <f aca="false">-SUMPRODUCT(F40:H40,F$32:H$32)</f>
+        <v>-0</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <f aca="false">EXP(J40)</f>
+        <v>1</v>
+      </c>
+      <c r="L40" s="13" t="n">
+        <f aca="false">K40/SUMIF(B:B,B40,K:K)</f>
+        <v>0.721115178022863</v>
       </c>
     </row>
   </sheetData>
@@ -2732,7 +2989,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>13</v>
@@ -3757,7 +4014,7 @@
     </row>
     <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I33" s="20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4237,40 +4494,40 @@
         <v>12</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>13</v>
@@ -4290,7 +4547,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D7" s="11" t="n">
         <v>1</v>
@@ -4365,7 +4622,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>0</v>
@@ -4440,7 +4697,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>1</v>
@@ -4515,7 +4772,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>0</v>
@@ -4590,7 +4847,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>1</v>
@@ -4665,7 +4922,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>0</v>
@@ -4740,7 +4997,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>1</v>
@@ -4815,7 +5072,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>0</v>
@@ -4890,7 +5147,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>1</v>
@@ -4965,7 +5222,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>0</v>
@@ -5040,7 +5297,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>1</v>
@@ -5115,7 +5372,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>0</v>
@@ -5190,7 +5447,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>1</v>
@@ -5265,7 +5522,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>0</v>
@@ -5340,7 +5597,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D21" s="15" t="n">
         <v>1</v>
@@ -5415,7 +5672,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D22" s="15" t="n">
         <v>0</v>
@@ -5490,7 +5747,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D23" s="15" t="n">
         <v>0</v>
@@ -5565,7 +5822,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D24" s="15" t="n">
         <v>1</v>
@@ -5640,7 +5897,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D25" s="15" t="n">
         <v>0</v>
@@ -5715,7 +5972,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D26" s="15" t="n">
         <v>1</v>
@@ -5790,7 +6047,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D27" s="15" t="n">
         <v>0</v>
@@ -5865,7 +6122,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D28" s="15" t="n">
         <v>1</v>
@@ -5940,7 +6197,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D29" s="15" t="n">
         <v>0</v>
@@ -6015,7 +6272,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D30" s="15" t="n">
         <v>1</v>
@@ -6090,7 +6347,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D31" s="15" t="n">
         <v>0</v>
@@ -6165,7 +6422,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D32" s="15" t="n">
         <v>1</v>
@@ -6240,7 +6497,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D33" s="15" t="n">
         <v>0</v>
@@ -6315,7 +6572,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D34" s="15" t="n">
         <v>1</v>
@@ -6390,7 +6647,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D35" s="15" t="n">
         <v>0</v>
@@ -6465,7 +6722,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D36" s="15" t="n">
         <v>1</v>
@@ -6540,7 +6797,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D37" s="15" t="n">
         <v>0</v>
@@ -6615,7 +6872,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D38" s="15" t="n">
         <v>1</v>
@@ -6690,7 +6947,7 @@
         <v>33</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D39" s="15" t="n">
         <v>1</v>
@@ -6765,7 +7022,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D40" s="15" t="n">
         <v>0</v>
@@ -6840,7 +7097,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D41" s="15" t="n">
         <v>1</v>
@@ -6915,7 +7172,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D42" s="15" t="n">
         <v>0</v>
@@ -6990,7 +7247,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D43" s="15" t="n">
         <v>0</v>
@@ -7065,7 +7322,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D44" s="15" t="n">
         <v>1</v>
@@ -7140,7 +7397,7 @@
         <v>35</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D45" s="15" t="n">
         <v>0</v>
@@ -7215,7 +7472,7 @@
         <v>35</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D46" s="15" t="n">
         <v>1</v>
@@ -7290,7 +7547,7 @@
         <v>37</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D47" s="15" t="n">
         <v>1</v>
@@ -7365,7 +7622,7 @@
         <v>37</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D48" s="15" t="n">
         <v>0</v>
@@ -7440,7 +7697,7 @@
         <v>37</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D49" s="15" t="n">
         <v>1</v>
@@ -7515,7 +7772,7 @@
         <v>37</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D50" s="15" t="n">
         <v>0</v>
@@ -7590,7 +7847,7 @@
         <v>39</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D51" s="15" t="n">
         <v>0</v>
@@ -7665,7 +7922,7 @@
         <v>39</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D52" s="15" t="n">
         <v>1</v>
@@ -7740,7 +7997,7 @@
         <v>39</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D53" s="15" t="n">
         <v>0</v>
@@ -7815,7 +8072,7 @@
         <v>39</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D54" s="15" t="n">
         <v>1</v>
@@ -8244,58 +8501,58 @@
         <v>12</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AB6" s="2" t="s">
         <v>13</v>
@@ -10973,58 +11230,58 @@
         <v>12</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AB6" s="2" t="s">
         <v>13</v>
